--- a/biology/Zoologie/Centruroides_vittatus/Centruroides_vittatus.xlsx
+++ b/biology/Zoologie/Centruroides_vittatus/Centruroides_vittatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centruroides vittatus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 aux États-Unis au Texas, au Nouveau-Mexique, au Colorado, en Oklahoma, au Kansas, au Nebraska, au Missouri, en Illinois, en Arkansas et en Louisiane ;
 au Mexique au Chihuahua, au Coahuila, au Nuevo León, au Tamaulipas et au Zacatecas.
-Elle a été observée ponctuellement au Tennessee, en Caroline du Nord, au Kentucky et en Alabama[1].
+Elle a été observée ponctuellement au Tennessee, en Caroline du Nord, au Kentucky et en Alabama.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centruroides vittatus mesure entre 55 et 75 mm[2].
-Pour se cacher de ses proies et prédateurs, le scorpion possède une pigmentation lui offrant un très bon camouflage[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centruroides vittatus mesure entre 55 et 75 mm.
+Pour se cacher de ses proies et prédateurs, le scorpion possède une pigmentation lui offrant un très bon camouflage.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Prédateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La journée, il ne bouge pas et reste tapi dans la végétation touffue et autre recoins humides. La nuit, il chasse, dès le crépuscule. Pour détecter ses proies, il capte leurs odeurs et mouvements via un organe sensoriel situé entre les pattes arrière. Cet organe forme un peigne. Une fois détectée, la proie est saisie grâce aux pinces du scorpion et meurt[2].
-Ce scorpion se nourrit d'insectes, d'araignées et de mille-pattes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La journée, il ne bouge pas et reste tapi dans la végétation touffue et autre recoins humides. La nuit, il chasse, dès le crépuscule. Pour détecter ses proies, il capte leurs odeurs et mouvements via un organe sensoriel situé entre les pattes arrière. Cet organe forme un peigne. Une fois détectée, la proie est saisie grâce aux pinces du scorpion et meurt.
+Ce scorpion se nourrit d'insectes, d'araignées et de mille-pattes.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une gestation de 8 mois, la femelle pond entre 30 et 50 œufs, les petits après éclosion vont se réfugier sur le dos de leur mère. Ils vont y rester jusqu'à leur première mue[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une gestation de 8 mois, la femelle pond entre 30 et 50 œufs, les petits après éclosion vont se réfugier sur le dos de leur mère. Ils vont y rester jusqu'à leur première mue.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Say, 1821 : « An account of the Arachnides of the United States. » Journal of the Academy of Natural Sciences of Philadelphia, vol. 2, p. 59-82 (texte intégral) (en).</t>
         </is>
